--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71AAE8-A326-4F48-872A-BFB411BB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F5F6F-1304-4502-B601-71CDEC2B9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>こんにちは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,10 +409,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08717CD4-B47E-40E3-930E-FAB1126712E2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -465,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180878E-F404-48D7-B566-4C63AA8A9C78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71AAE8-A326-4F48-872A-BFB411BB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D693D367-CE55-434B-ABAB-84C4BC05DD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="255" yWindow="510" windowWidth="19155" windowHeight="10410" activeTab="3" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aaaaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,10 +448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FF7B96-C138-49C8-97EF-FF851665D4C5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -465,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180878E-F404-48D7-B566-4C63AA8A9C78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71AAE8-A326-4F48-872A-BFB411BB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C9653-0CE8-4559-90C3-50C37AB8397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,10 +435,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46095426-82FE-4719-A5B3-C608BDA669DA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -465,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180878E-F404-48D7-B566-4C63AA8A9C78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71AAE8-A326-4F48-872A-BFB411BB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE0D34-6577-43BF-ABE7-68D09CE1FA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +422,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B8F2A6-868A-43FC-9B59-0DDC30C04DC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -465,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180878E-F404-48D7-B566-4C63AA8A9C78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D693D367-CE55-434B-ABAB-84C4BC05DD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71AAE8-A326-4F48-872A-BFB411BB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="510" windowWidth="19155" windowHeight="10410" activeTab="3" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>aaaaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,18 +439,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FF7B96-C138-49C8-97EF-FF851665D4C5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -482,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180878E-F404-48D7-B566-4C63AA8A9C78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F5F6F-1304-4502-B601-71CDEC2B9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BC118-DB5E-435C-8C5C-C8C39F0B82B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
@@ -40,9 +40,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>こんにちは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hello</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08717CD4-B47E-40E3-930E-FAB1126712E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -420,6 +424,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BC118-DB5E-435C-8C5C-C8C39F0B82B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5AF08B-05E6-4D18-AD38-527798A38B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>こんにちは</t>
     <phoneticPr fontId="1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08717CD4-B47E-40E3-930E-FAB1126712E2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -429,6 +429,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BC118-DB5E-435C-8C5C-C8C39F0B82B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC9BFA-FAAF-4AA2-91AD-A3D377A1641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>こんにちは</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>hello</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -413,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08717CD4-B47E-40E3-930E-FAB1126712E2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -439,10 +443,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B8F2A6-868A-43FC-9B59-0DDC30C04DC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EC9BFA-FAAF-4AA2-91AD-A3D377A1641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF1ED5-4201-4A06-8851-4C948CCA3638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>こんにちは</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>konn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こん＾＾</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08717CD4-B47E-40E3-930E-FAB1126712E2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -433,6 +441,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -443,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B8F2A6-868A-43FC-9B59-0DDC30C04DC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF1ED5-4201-4A06-8851-4C948CCA3638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D9ACCE-40B4-4F25-B6A5-7737935E4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
@@ -21,6 +21,9 @@
     <sheet name="井上" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="User - 個人用ビュー" guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}" mergeInterval="0" personalView="1" xWindow="683" windowWidth="683" windowHeight="738" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,6 +127,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F41AFC52-331E-40C7-B259-BA046F4C9D0B}">
+  <header guid="{F41AFC52-331E-40C7-B259-BA046F4C9D0B}" dateTime="2022-06-08T17:50:30" maxSheetId="7" userName="User" r:id="rId1">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,6 +478,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}">
+      <selection activeCell="A4" sqref="A4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -473,6 +505,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -486,6 +524,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -499,6 +542,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -512,6 +560,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -525,6 +578,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{681BC4BB-EE92-4ED4-9617-9048C6D66DA0}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/共有test.xlsx
+++ b/doc/共有test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C9653-0CE8-4559-90C3-50C37AB8397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71AAE8-A326-4F48-872A-BFB411BB720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{FB30B67B-8729-4A54-A885-4673570F7F13}"/>
   </bookViews>
   <sheets>
     <sheet name="角一" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,18 +426,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46095426-82FE-4719-A5B3-C608BDA669DA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -482,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E180878E-F404-48D7-B566-4C63AA8A9C78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
